--- a/resources/GSEA1/notes.xlsx
+++ b/resources/GSEA1/notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\Gestion-des-notes-avec-XML\resources\GSEA1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8EE916-A9FD-4EE0-8378-16D8BEC7E3BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DC8DC3-8975-4345-9D00-831A22613633}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2640" windowWidth="15375" windowHeight="8115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>CNE</t>
   </si>
@@ -347,9 +347,6 @@
   </si>
   <si>
     <t>Note_GSEA26</t>
-  </si>
-  <si>
-    <t>MOY</t>
   </si>
 </sst>
 </file>
@@ -699,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P48"/>
+  <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="I38" workbookViewId="0">
-      <selection activeCell="Q48" sqref="Q48"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -723,7 +720,7 @@
     <col min="15" max="15" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -769,11 +766,8 @@
       <c r="O1" t="s">
         <v>108</v>
       </c>
-      <c r="P1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>425</v>
       </c>
@@ -819,12 +813,8 @@
       <c r="O2">
         <v>12</v>
       </c>
-      <c r="P2">
-        <f>AVERAGE(D2:O2)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>426</v>
       </c>
@@ -870,12 +860,8 @@
       <c r="O3">
         <v>12</v>
       </c>
-      <c r="P3">
-        <f t="shared" ref="P3:P48" si="0">AVERAGE(D3:O3)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>427</v>
       </c>
@@ -921,12 +907,8 @@
       <c r="O4">
         <v>12</v>
       </c>
-      <c r="P4">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>428</v>
       </c>
@@ -972,12 +954,8 @@
       <c r="O5">
         <v>12</v>
       </c>
-      <c r="P5">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>429</v>
       </c>
@@ -1023,12 +1001,8 @@
       <c r="O6">
         <v>12</v>
       </c>
-      <c r="P6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>430</v>
       </c>
@@ -1074,12 +1048,8 @@
       <c r="O7">
         <v>12</v>
       </c>
-      <c r="P7">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>431</v>
       </c>
@@ -1125,12 +1095,8 @@
       <c r="O8">
         <v>12</v>
       </c>
-      <c r="P8">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>432</v>
       </c>
@@ -1176,12 +1142,8 @@
       <c r="O9">
         <v>12</v>
       </c>
-      <c r="P9">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>433</v>
       </c>
@@ -1227,12 +1189,8 @@
       <c r="O10">
         <v>12</v>
       </c>
-      <c r="P10">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>434</v>
       </c>
@@ -1278,12 +1236,8 @@
       <c r="O11">
         <v>12</v>
       </c>
-      <c r="P11">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>435</v>
       </c>
@@ -1329,12 +1283,8 @@
       <c r="O12">
         <v>12</v>
       </c>
-      <c r="P12">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>436</v>
       </c>
@@ -1380,12 +1330,8 @@
       <c r="O13">
         <v>12</v>
       </c>
-      <c r="P13">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>437</v>
       </c>
@@ -1431,12 +1377,8 @@
       <c r="O14">
         <v>12</v>
       </c>
-      <c r="P14">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>438</v>
       </c>
@@ -1482,12 +1424,8 @@
       <c r="O15">
         <v>12</v>
       </c>
-      <c r="P15">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>439</v>
       </c>
@@ -1533,12 +1471,8 @@
       <c r="O16">
         <v>12</v>
       </c>
-      <c r="P16">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>440</v>
       </c>
@@ -1584,12 +1518,8 @@
       <c r="O17">
         <v>12</v>
       </c>
-      <c r="P17">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>441</v>
       </c>
@@ -1635,12 +1565,8 @@
       <c r="O18">
         <v>12</v>
       </c>
-      <c r="P18">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>442</v>
       </c>
@@ -1686,12 +1612,8 @@
       <c r="O19">
         <v>12</v>
       </c>
-      <c r="P19">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>443</v>
       </c>
@@ -1737,12 +1659,8 @@
       <c r="O20">
         <v>12</v>
       </c>
-      <c r="P20">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>444</v>
       </c>
@@ -1788,12 +1706,8 @@
       <c r="O21">
         <v>12</v>
       </c>
-      <c r="P21">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>445</v>
       </c>
@@ -1839,12 +1753,8 @@
       <c r="O22">
         <v>12</v>
       </c>
-      <c r="P22">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>446</v>
       </c>
@@ -1890,12 +1800,8 @@
       <c r="O23">
         <v>12</v>
       </c>
-      <c r="P23">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>447</v>
       </c>
@@ -1941,12 +1847,8 @@
       <c r="O24">
         <v>12</v>
       </c>
-      <c r="P24">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>448</v>
       </c>
@@ -1992,12 +1894,8 @@
       <c r="O25">
         <v>12</v>
       </c>
-      <c r="P25">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>449</v>
       </c>
@@ -2043,12 +1941,8 @@
       <c r="O26">
         <v>12</v>
       </c>
-      <c r="P26">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>450</v>
       </c>
@@ -2094,12 +1988,8 @@
       <c r="O27">
         <v>12</v>
       </c>
-      <c r="P27">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>451</v>
       </c>
@@ -2145,12 +2035,8 @@
       <c r="O28">
         <v>12</v>
       </c>
-      <c r="P28">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>452</v>
       </c>
@@ -2196,12 +2082,8 @@
       <c r="O29">
         <v>12</v>
       </c>
-      <c r="P29">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>453</v>
       </c>
@@ -2247,12 +2129,8 @@
       <c r="O30">
         <v>12</v>
       </c>
-      <c r="P30">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>454</v>
       </c>
@@ -2298,12 +2176,8 @@
       <c r="O31">
         <v>12</v>
       </c>
-      <c r="P31">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>455</v>
       </c>
@@ -2349,12 +2223,8 @@
       <c r="O32">
         <v>12</v>
       </c>
-      <c r="P32">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>456</v>
       </c>
@@ -2400,12 +2270,8 @@
       <c r="O33">
         <v>12</v>
       </c>
-      <c r="P33">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>457</v>
       </c>
@@ -2451,12 +2317,8 @@
       <c r="O34">
         <v>12</v>
       </c>
-      <c r="P34">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>458</v>
       </c>
@@ -2502,12 +2364,8 @@
       <c r="O35">
         <v>12</v>
       </c>
-      <c r="P35">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>459</v>
       </c>
@@ -2553,12 +2411,8 @@
       <c r="O36">
         <v>12</v>
       </c>
-      <c r="P36">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>460</v>
       </c>
@@ -2604,12 +2458,8 @@
       <c r="O37">
         <v>12</v>
       </c>
-      <c r="P37">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>461</v>
       </c>
@@ -2655,12 +2505,8 @@
       <c r="O38">
         <v>12</v>
       </c>
-      <c r="P38">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>462</v>
       </c>
@@ -2706,12 +2552,8 @@
       <c r="O39">
         <v>12</v>
       </c>
-      <c r="P39">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>463</v>
       </c>
@@ -2757,12 +2599,8 @@
       <c r="O40">
         <v>12</v>
       </c>
-      <c r="P40">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>464</v>
       </c>
@@ -2808,12 +2646,8 @@
       <c r="O41">
         <v>12</v>
       </c>
-      <c r="P41">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>465</v>
       </c>
@@ -2859,12 +2693,8 @@
       <c r="O42">
         <v>12</v>
       </c>
-      <c r="P42">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>466</v>
       </c>
@@ -2910,12 +2740,8 @@
       <c r="O43">
         <v>12</v>
       </c>
-      <c r="P43">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>467</v>
       </c>
@@ -2961,12 +2787,8 @@
       <c r="O44">
         <v>12</v>
       </c>
-      <c r="P44">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>468</v>
       </c>
@@ -3012,12 +2834,8 @@
       <c r="O45">
         <v>12</v>
       </c>
-      <c r="P45">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>469</v>
       </c>
@@ -3063,12 +2881,8 @@
       <c r="O46">
         <v>12</v>
       </c>
-      <c r="P46">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>470</v>
       </c>
@@ -3114,12 +2928,8 @@
       <c r="O47">
         <v>12</v>
       </c>
-      <c r="P47">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>471</v>
       </c>
@@ -3163,10 +2973,6 @@
         <v>12</v>
       </c>
       <c r="O48">
-        <v>12</v>
-      </c>
-      <c r="P48">
-        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
